--- a/docs/ST1a/ST1a_02.08.24_output.xlsx
+++ b/docs/ST1a/ST1a_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731659356.0618038</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731659361.2474062</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731659356.0618038.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731659361.2474062.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.87</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.13</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.740000000000009</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731659362.8653302</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731659370.1388154</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731659362.8653302.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731659370.1388154.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.72</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>284.52</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731659377.8489492</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731659381.8639147</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731659377.8489492.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731659381.8639147.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>286.58</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>285.85</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.7299999999999613</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731659398.7439501</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731659401.4186673</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659398.7439501.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659401.4186673.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>131.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>130.08</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.189999999999998</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731659405.2582557</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731659412.2370358</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659405.2582557.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659412.2370358.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.34</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.53</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.189999999999998</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.91</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731659412.2529743</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731659420.8896813</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659412.2529743.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659420.8896813.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.53</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>131.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3300000000000125</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731659420.906636</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731659421.4551697</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659420.906636.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659421.4551697.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>131.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>131.17</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731659421.4721236</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731659422.3068914</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659421.4721236.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731659422.3068914.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.17</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731659425.0045896</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731659435.8883395</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731659425.0045896.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731659435.8883395.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6681</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6610</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>71</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731659445.2026286</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731659449.575845</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731659445.2026286.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731659449.575845.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6633</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6605</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-28</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731659460.8737438</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731659463.8306746</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659460.8737438.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659463.8306746.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>507.95</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>508.55</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731659463.8476303</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731659471.106736</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659463.8476303.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659471.106736.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>508.55</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>504</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4.550000000000011</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731659476.0491004</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731659478.8262923</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659476.0491004.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659478.8262923.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>505.75</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>506.05</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731659484.773284</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731659485.396061</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659484.773284.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659485.396061.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>504.75</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>504.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731659485.4120119</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731659486.2946763</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659485.4120119.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731659486.2946763.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>504.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>504.25</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1319,95 +1425,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731659487.7979932</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731659487.7979932.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731659487.7979932.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>504.65</v>
       </c>
-      <c r="J18" t="n">
-        <v>504.65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>504.95</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731659490.137831</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731659492.5507598</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731659490.137831.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731659492.5507598.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>229.35</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>229.31</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731659502.7162356</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731659511.0121179</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731659502.7162356.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731659511.0121179.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>228.15</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>230.12</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.969999999999999</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731659511.0280762</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731659514.2604768</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731659511.0280762.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731659514.2604768.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>230.12</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>230.52</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1519,95 +1649,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731659522.9083145</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731659522.9083145.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731659522.9083145.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>230.12</v>
       </c>
-      <c r="J22" t="n">
-        <v>230.12</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>230.16</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731659525.8190222</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731659533.3547368</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659525.8190222.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659533.3547368.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1030.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1026.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-4.200000000000045</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731659533.409045</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731659539.8813982</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659533.409045.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659539.8813982.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1026.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1016</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>10.59999999999991</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731659541.4541814</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731659545.8732495</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659541.4541814.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659545.8732495.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1021.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1024.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-2.600000000000023</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731659545.890177</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731659551.4204667</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659545.890177.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659551.4204667.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1024.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1022</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731659553.0712984</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731659553.6215923</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659553.0712984.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659553.6215923.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1019.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1019.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731659554.9258611</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731659557.1320038</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659554.9258611.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659557.1320038.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731659557.148959</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731659557.6886263</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659557.148959.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731659557.6886263.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1019.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1927,43 +2105,49 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731659557.7055805</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731659557.7055805.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731659557.7055805.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1020.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731659568.5981011</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731659577.907277</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659568.5981011.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659577.907277.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>128.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>127.7</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.7000000000000028</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731659583.5935638</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731659584.1320827</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659583.5935638.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659584.1320827.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>128.04</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>128.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731659586.5461268</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731659591.0331192</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659586.5461268.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659591.0331192.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>128.16</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>127.76</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.3999999999999915</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731659591.089046</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731659591.5765765</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659591.089046.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731659591.5765765.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>127.72</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>127.64</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731659599.6972184</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731659604.824527</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731659599.6972184.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731659604.824527.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>164.78</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>164.5</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731659620.4028823</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731659624.6921144</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731659620.4028823.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731659624.6921144.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>165.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>165.16</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.6400000000000148</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731659626.060569</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731659628.6522055</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731659626.060569.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731659628.6522055.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>165.3</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>165.08</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2335,95 +2561,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731659629.4221249</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731659629.4221249.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731659629.4221249.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>165.26</v>
       </c>
-      <c r="J38" t="n">
-        <v>165.26</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>165.7</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731659631.589606</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731659637.8824823</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659631.589606.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659637.8824823.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>50.53</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>50.305</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2250000000000014</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731659639.0395424</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731659642.990758</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659639.0395424.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659642.990758.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>50.425</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>50.425</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731659643.3103888</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731659648.3299212</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659643.3103888.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659648.3299212.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>50.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>50.39</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731659648.3468919</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731659649.214257</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659648.3468919.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659649.214257.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>50.39</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>50.27</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731659654.2946303</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731659659.4508767</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659654.2946303.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659659.4508767.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>50.36</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>50.285</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731659661.3314478</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731659662.2046878</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659661.3314478.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731659662.2046878.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>50.375</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>50.39</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2691,95 +2959,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731659665.2222812</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731659665.2222812.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731659665.2222812.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>50.405</v>
       </c>
-      <c r="J45" t="n">
-        <v>50.405</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.39</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731659667.6697404</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731659678.4787955</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659667.6697404.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659678.4787955.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1409.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1401</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>8.599999999999909</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731659679.1818478</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731659682.735956</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659679.1818478.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659682.735956.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1405</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1395.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>9.799999999999955</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731659685.4225125</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731659688.1731172</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659685.4225125.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659688.1731172.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1403</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731659688.702364</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731659692.6494162</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659688.702364.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659692.6494162.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1397.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.3999999999998636</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731659693.0554008</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731659694.0878336</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659693.0554008.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659694.0878336.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1399.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1399.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731659698.2009268</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731659698.8833873</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659698.2009268.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731659698.8833873.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1405</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1405.2</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731659703.0627315</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731659706.8497472</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659703.0627315.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659706.8497472.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>60.73</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>60.74</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731659706.9966013</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731659712.0406907</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659706.9966013.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659712.0406907.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>60.65</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>60.1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.5499999999999972</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731659722.2191267</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731659725.8887389</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659722.2191267.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659725.8887389.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>60.29</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>60.19</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731659725.9056647</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731659726.5330524</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659725.9056647.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731659726.5330524.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>60.19</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>60.18</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731659734.8857155</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731659736.5580435</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731659734.8857155.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731659736.5580435.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>97.55</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>97.61</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3307,51 +3647,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731659758.3830397</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731659762.0813484</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659758.3830397.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659762.0813484.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>56.98</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>56.99</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3359,51 +3705,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731659765.8761096</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731659767.5604851</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659765.8761096.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659767.5604851.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.78</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>56.86</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3411,51 +3763,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731659767.5774388</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731659769.5620916</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659767.5774388.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731659769.5620916.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>56.86</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>57.12</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.259999999999998</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3463,51 +3821,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731659772.5800548</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731659776.65019</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659772.5800548.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659776.65019.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>143.16</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>143.06</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731659776.7942219</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731659776.9711344</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659776.7942219.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659776.9711344.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>143.06</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>142.56</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.5</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731659777.7416222</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731659782.0003464</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659777.7416222.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659782.0003464.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>142.98</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>143.16</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.1800000000000068</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731659782.2877104</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731659784.490727</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659782.2877104.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659784.490727.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>142.88</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>143.16</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731659786.8708117</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731659793.8198755</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659786.8708117.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659793.8198755.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>142.98</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>145.36</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-2.380000000000024</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-1.66</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731659793.836832</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731659802.3426921</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659793.836832.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731659802.3426921.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>145.36</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>145.78</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731659807.560369</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731659813.2619462</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659807.560369.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659813.2619462.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>20.883</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>20.707</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.1759999999999984</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.84</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731659813.3260925</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731659816.6050375</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659813.3260925.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659816.6050375.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>20.743</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>20.657</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.08599999999999852</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731659826.7651398</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731659832.136859</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659826.7651398.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731659832.136859.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>20.849</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>20.726</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.1230000000000011</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -3931,95 +4343,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731659837.9495556</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731659837.9495556.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731659837.9495556.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>20.881</v>
       </c>
-      <c r="J69" t="n">
-        <v>20.881</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>20.902</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.0210000000000008</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731659840.193677</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731659844.5957499</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659840.193677.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659844.5957499.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>677.55</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>673.4</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>4.149999999999977</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -4027,51 +4451,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731659858.4406877</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731659863.9421916</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659858.4406877.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659863.9421916.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>666.25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>672.35</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-6.100000000000023</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -4079,51 +4509,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731659864.0075889</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731659871.147082</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659864.0075889.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731659871.147082.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>672.1</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>676.7</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -4131,51 +4567,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731659872.5584862</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731659872.9634297</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659872.5584862.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659872.9634297.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.09926000000000001</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0006200000000000094</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -4183,51 +4625,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731659873.7097843</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731659877.4145467</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659873.7097843.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659877.4145467.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.09914000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.09928000000000001</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.0001400000000000012</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4235,51 +4683,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731659881.7491117</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731659887.7009213</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659881.7491117.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731659887.7009213.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.10034</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="K75" t="n">
-        <v>-0.0008200000000000013</v>
-      </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
+        <v>-0.0008199999999999874</v>
+      </c>
+      <c r="N75" t="n">
         <v>-0.8200000000000001</v>
       </c>
     </row>
@@ -4287,95 +4741,107 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731659887.7188728</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731659887.7188728.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731659887.7188728.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="J76" t="n">
-        <v>0.09952000000000001</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.09916</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0003600000000000131</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731659906.6527653</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731659916.3386164</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659906.6527653.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659916.3386164.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.5998</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.5984</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.001399999999999957</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4383,51 +4849,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731659916.4672966</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731659919.4446194</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659916.4672966.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659919.4446194.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.5986</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.6016</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.003000000000000003</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4435,51 +4907,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731659920.2679384</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731659922.537134</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659920.2679384.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659922.537134.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.5995</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.6033000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.003800000000000026</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -4487,51 +4965,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731659925.7705088</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731659928.8741765</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659925.7705088.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659928.8741765.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.6026</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.6024</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.000199999999999978</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4539,51 +5023,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731659928.892128</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731659932.707004</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659928.892128.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659932.707004.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.6024</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.000299999999999967</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4591,51 +5081,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731659932.8632956</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731659934.611348</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659932.8632956.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731659934.611348.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.6023000000000001</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.602</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.000300000000000078</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4643,95 +5139,107 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731659934.6766546</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731659934.6766546.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731659934.6766546.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.6021000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.6022</v>
+      </c>
+      <c r="M83" t="n">
+        <v>9.999999999987796e-05</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731659935.3944929</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731659937.4254398</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659935.3944929.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659937.4254398.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>2992.95</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>2993</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.0500000000001819</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -4739,51 +5247,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731659937.4443603</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731659938.1719873</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659937.4443603.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659938.1719873.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>2993</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>2991.8</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-1.199999999999818</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4791,51 +5305,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731659939.3658648</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731659940.4621835</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659939.3658648.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659940.4621835.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>2989.45</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>2986.4</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>3.049999999999727</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4843,51 +5363,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731659942.6765373</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731659943.334327</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659942.6765373.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659943.334327.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>2974.85</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>2973.65</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.199999999999818</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4895,51 +5421,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731659945.515266</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731659946.4604447</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659945.515266.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659946.4604447.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>2974.15</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>2975.2</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-1.049999999999727</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4947,51 +5479,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731659946.4774024</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731659949.0470493</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659946.4774024.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659949.0470493.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>2975.2</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>2962.35</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-12.84999999999991</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -4999,51 +5537,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731659949.0640006</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731659949.5789669</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659949.0640006.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659949.5789669.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>2961.8</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.5499999999997272</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5051,51 +5595,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731659950.324393</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731659951.874549</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659950.324393.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659951.874549.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2961.2</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2960</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-1.199999999999818</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5103,51 +5653,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731659951.892469</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731659952.8246133</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659951.892469.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659952.8246133.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2960</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2958.75</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>1.25</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5155,51 +5711,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731659952.8435326</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731659954.2855718</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659952.8435326.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659954.2855718.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2958.75</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2971.9</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>13.15000000000009</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -5207,51 +5769,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731659954.6527755</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731659955.5001116</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659954.6527755.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659955.5001116.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2966.4</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2967.3</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.9000000000000909</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -5259,51 +5827,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731659955.5200543</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731659958.2706711</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659955.5200543.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659958.2706711.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2967.3</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2984.15</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-16.84999999999991</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -5311,51 +5885,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731659958.288595</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731659959.2112577</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659958.288595.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731659959.2112577.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2984.15</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2978.9</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-5.25</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -5363,95 +5943,107 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731659968.609395</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731659968.609395.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731659968.609395.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2964.05</v>
       </c>
-      <c r="J97" t="n">
-        <v>2964.05</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>2965.3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731659970.571968</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731659975.56352</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659970.571968.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659975.56352.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>34.525</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>34.505</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5459,51 +6051,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731659975.7173233</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731659976.3654745</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659975.7173233.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659976.3654745.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>34.51</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>34.355</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.1550000000000011</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -5511,51 +6109,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731659992.4225786</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731659998.1646285</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659992.4225786.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731659998.1646285.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>34.35</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>34.2</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.1499999999999986</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -5617,19 +6221,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18.34999999999991</v>
+        <v>-17.09999999999991</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.310714285714279</v>
+        <v>-1.221428571428565</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6300000000000001</v>
+        <v>-0.5900000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -5661,19 +6265,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008600000000000052</v>
+        <v>0.00869999999999993</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001228571428571436</v>
+        <v>0.001242857142857133</v>
       </c>
       <c r="E4" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -5683,19 +6287,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2749999999999986</v>
+        <v>0.259999999999998</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03928571428571408</v>
+        <v>0.03714285714285686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5749,19 +6353,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.850000000000023</v>
+        <v>6.150000000000034</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9750000000000038</v>
+        <v>1.025000000000006</v>
       </c>
       <c r="E8" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="F8" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -5815,19 +6419,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.140000000000015</v>
+        <v>-1.580000000000013</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2850000000000037</v>
+        <v>-0.3950000000000031</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.96</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.17</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="12">
@@ -5837,19 +6441,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.213000000000001</v>
+        <v>-0.2340000000000018</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05325000000000024</v>
+        <v>-0.05850000000000044</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.02</v>
+        <v>-1.12</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.26</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="13">
@@ -5859,16 +6463,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.530000000000001</v>
+        <v>-1.569999999999993</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3825000000000003</v>
+        <v>-0.3924999999999983</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6699999999999999</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F13" t="n">
         <v>-0.17</v>
@@ -5903,19 +6507,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003399999999999931</v>
+        <v>2.000000000003388e-05</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.499999999999827e-05</v>
+        <v>5.00000000000847e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3400000000000001</v>
+        <v>0.01999999999999991</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
